--- a/data/raw/mensal_brasil-desde_jan2013.xlsx
+++ b/data/raw/mensal_brasil-desde_jan2013.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <fileSharing readOnlyRecommended="1" userName="Usuário do Windows" algorithmName="SHA-512" hashValue="gb4ymZfrm580/PSRo9hNHjKJKuZ2RuwildAPGtcTFr5o+n2ygcddFYSgV78iSao/1JF1yC+s/Uq+Fq4y/xHC6w==" saltValue="NdSMONeHZGB+yqilpX7Eig==" spinCount="100000"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Precos\Levantamento de Preços\++SERIE_HISTORICA-SITE++\MENSAL\2013 EM DIANTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{C3C5EB9D-8B5E-47D3-A0DD-443F328B41B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{09B6865C-C8A7-426E-8003-412F20B62B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20295" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - DESDE JANEIRO DE 2013" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="41">
   <si>
     <t>AGÊNCIA NACIONAL DO PETRÓLEO, GÁS NATURAL E BIOCOMBUSTÍVEIS - ANP</t>
   </si>
@@ -577,140 +577,140 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:R842"/>
+  <dimension ref="A1:R863"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A829" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A843" sqref="A843"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -757,7 +757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>41275</v>
       </c>
@@ -806,7 +806,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>41275</v>
       </c>
@@ -855,7 +855,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>41275</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>41275</v>
       </c>
@@ -953,7 +953,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>41275</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>41275</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>41306</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>41306</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>41306</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>41306</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>41306</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>41306</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>41334</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>41334</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>41334</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>41334</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>41334</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>41334</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>41365</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>41365</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>41365</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>41365</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>41365</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41365</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41395</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41395</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41395</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41395</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41395</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>41395</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>41426</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>41426</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>41426</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41426</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>41426</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41426</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41456</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41456</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41456</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41456</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41456</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41487</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41487</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>41487</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>41487</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>41487</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>41487</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>41518</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>41518</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>41518</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>41518</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>41518</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>41518</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>41548</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>41548</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>41548</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>41548</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>41548</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>41548</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>41579</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>41579</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>41579</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>41579</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>41579</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>41579</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>41609</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>41609</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>41609</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>41609</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>41609</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>41609</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>41640</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>41640</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>41640</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>41640</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>41640</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>41640</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>41671</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>41671</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>41671</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>41671</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>41671</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>41671</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>41699</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>41699</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>41699</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>41699</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>41699</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>41699</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>41730</v>
       </c>
@@ -5054,7 +5054,7 @@
       <c r="P108"/>
       <c r="R108"/>
     </row>
-    <row r="109" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>41730</v>
       </c>
@@ -5103,7 +5103,7 @@
       <c r="P109"/>
       <c r="R109"/>
     </row>
-    <row r="110" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>41730</v>
       </c>
@@ -5152,7 +5152,7 @@
       <c r="P110"/>
       <c r="R110"/>
     </row>
-    <row r="111" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>41730</v>
       </c>
@@ -5201,7 +5201,7 @@
       <c r="P111"/>
       <c r="R111"/>
     </row>
-    <row r="112" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>41730</v>
       </c>
@@ -5250,7 +5250,7 @@
       <c r="P112"/>
       <c r="R112"/>
     </row>
-    <row r="113" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>41730</v>
       </c>
@@ -5299,7 +5299,7 @@
       <c r="P113"/>
       <c r="R113"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>41760</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>41760</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>41760</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>41760</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>41760</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>41760</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>41791</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>41791</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>41791</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>41791</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>41791</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>41791</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>41821</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>41821</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>41821</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>41821</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>41821</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>41821</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>41852</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>41852</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>41852</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>41852</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>41852</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>41852</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>41883</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>41883</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>41883</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>41883</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>41883</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>41883</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>41913</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>41913</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>41913</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>41913</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>41913</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>41913</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>41944</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>41944</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>41944</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>41944</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>41944</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>41944</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>41974</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>41974</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>41974</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>41974</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>41974</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>41974</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42005</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>42005</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42005</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>42005</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>42005</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42005</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42036</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>42036</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42036</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42036</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42036</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42036</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>42064</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>42064</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>42064</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>42064</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>42064</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>42064</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>42095</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>42095</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>42095</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>42095</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>42095</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>42095</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>42125</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>42125</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>42125</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>42125</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>42125</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>42125</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>42156</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>42156</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>42156</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>42156</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>42156</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>42156</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>42186</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>42186</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>42186</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>42186</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>42186</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>42186</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>42217</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>42217</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>42217</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>42217</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>42217</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>42217</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>42248</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>42248</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>42248</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>42248</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>42248</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>42248</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>42278</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>42278</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>42278</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>42278</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>42278</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>42278</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>42309</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>42309</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>42309</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>42309</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>42309</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>42309</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>42339</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>42339</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>42339</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>42339</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>42339</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>42339</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>42370</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>42370</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>42370</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>42370</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>42370</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>42370</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>42401</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>42401</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>42401</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>42401</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>42401</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>42430</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>42430</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>42430</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>42430</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>42430</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>42430</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>42461</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>42461</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>42461</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>42461</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>42461</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>42461</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>42491</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>42491</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>42491</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>42491</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>42491</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>42491</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>42522</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>42522</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>42522</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>42522</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>42522</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>42522</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>42552</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>42552</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>42552</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>42552</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>42552</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>42552</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>42583</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>42583</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>42583</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>42583</v>
       </c>
@@ -13101,7 +13101,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>42583</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>42583</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>42614</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>42614</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>42614</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>42614</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>42614</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>42614</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>42644</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>42644</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>42644</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>42644</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>42644</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>42644</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>42675</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>42675</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>42675</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>42675</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>42675</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>42675</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>42705</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>42705</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>42705</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>42705</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>42705</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>42705</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>42736</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>42736</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>42736</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>42736</v>
       </c>
@@ -14511,7 +14511,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>42736</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>42736</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>42767</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>42767</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>42767</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>42767</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>42767</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>42767</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>42795</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>42795</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>42795</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>42795</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>42795</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>42795</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>42826</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>42826</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>42826</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>42826</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>42826</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>42826</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>42856</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>42856</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>42856</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>42856</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>42856</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>42856</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>42887</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>42887</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>42887</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>42887</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>42887</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>42887</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>42917</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>42917</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>42917</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>42917</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>42917</v>
       </c>
@@ -16250,7 +16250,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>42917</v>
       </c>
@@ -16297,7 +16297,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>42948</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>42948</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>42948</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>42948</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>42948</v>
       </c>
@@ -16532,7 +16532,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>42948</v>
       </c>
@@ -16579,7 +16579,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>42979</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>42979</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>42979</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>42979</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>42979</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>42979</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>43009</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>43009</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>43009</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>43009</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>43009</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>43009</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>43040</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>43040</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>43040</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>43040</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>43040</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>43040</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>43070</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>43070</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>43070</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>43070</v>
       </c>
@@ -17613,7 +17613,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>43070</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>43070</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>43101</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>43101</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>43101</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>43101</v>
       </c>
@@ -17895,7 +17895,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>43101</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>43101</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>43132</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>43132</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>43132</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>43132</v>
       </c>
@@ -18177,7 +18177,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>43132</v>
       </c>
@@ -18224,7 +18224,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>43132</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>43160</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>43160</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>43160</v>
       </c>
@@ -18412,7 +18412,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>43160</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>43160</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>43160</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>43191</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>43191</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>43191</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>43191</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>43191</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>43191</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>43221</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>43221</v>
       </c>
@@ -18929,7 +18929,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>43221</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>43221</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>43221</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>43221</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>43252</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>43252</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>43252</v>
       </c>
@@ -19258,7 +19258,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>43252</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>43252</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>43252</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>43282</v>
       </c>
@@ -19446,7 +19446,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>43282</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>43282</v>
       </c>
@@ -19540,7 +19540,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>43282</v>
       </c>
@@ -19587,7 +19587,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>43282</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>43282</v>
       </c>
@@ -19681,7 +19681,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>43313</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>43313</v>
       </c>
@@ -19775,7 +19775,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>43313</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>43313</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>43313</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>43313</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>43344</v>
       </c>
@@ -20010,7 +20010,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>43344</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>43344</v>
       </c>
@@ -20104,7 +20104,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>43344</v>
       </c>
@@ -20151,7 +20151,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>43344</v>
       </c>
@@ -20198,7 +20198,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>43344</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>43374</v>
       </c>
@@ -20292,7 +20292,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>43374</v>
       </c>
@@ -20339,7 +20339,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>43374</v>
       </c>
@@ -20386,7 +20386,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>43374</v>
       </c>
@@ -20433,7 +20433,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>43374</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>43374</v>
       </c>
@@ -20527,7 +20527,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>43405</v>
       </c>
@@ -20574,7 +20574,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>43405</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>43405</v>
       </c>
@@ -20668,7 +20668,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>43405</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>43405</v>
       </c>
@@ -20762,7 +20762,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>43405</v>
       </c>
@@ -20809,7 +20809,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>43435</v>
       </c>
@@ -20856,7 +20856,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>43435</v>
       </c>
@@ -20903,7 +20903,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>43435</v>
       </c>
@@ -20950,7 +20950,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>43435</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>43435</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>43435</v>
       </c>
@@ -21091,7 +21091,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>43466</v>
       </c>
@@ -21138,7 +21138,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>43466</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>43466</v>
       </c>
@@ -21232,7 +21232,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>43466</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>43466</v>
       </c>
@@ -21326,7 +21326,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>43466</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>43497</v>
       </c>
@@ -21420,7 +21420,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>43497</v>
       </c>
@@ -21467,7 +21467,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>43497</v>
       </c>
@@ -21514,7 +21514,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>43497</v>
       </c>
@@ -21561,7 +21561,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>43497</v>
       </c>
@@ -21608,7 +21608,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>43497</v>
       </c>
@@ -21655,7 +21655,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>43525</v>
       </c>
@@ -21702,7 +21702,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>43525</v>
       </c>
@@ -21749,7 +21749,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>43525</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>43525</v>
       </c>
@@ -21843,7 +21843,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>43525</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>43525</v>
       </c>
@@ -21937,7 +21937,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>43556</v>
       </c>
@@ -21984,7 +21984,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>43556</v>
       </c>
@@ -22031,7 +22031,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>43556</v>
       </c>
@@ -22078,7 +22078,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>43556</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>43556</v>
       </c>
@@ -22172,7 +22172,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>43556</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>43586</v>
       </c>
@@ -22266,7 +22266,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>43586</v>
       </c>
@@ -22313,7 +22313,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>43586</v>
       </c>
@@ -22360,7 +22360,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>43586</v>
       </c>
@@ -22407,7 +22407,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>43586</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>43586</v>
       </c>
@@ -22501,7 +22501,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>43617</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>43617</v>
       </c>
@@ -22595,7 +22595,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>43617</v>
       </c>
@@ -22642,7 +22642,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>43617</v>
       </c>
@@ -22689,7 +22689,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>43617</v>
       </c>
@@ -22736,7 +22736,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>43617</v>
       </c>
@@ -22783,7 +22783,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>43647</v>
       </c>
@@ -22830,7 +22830,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>43647</v>
       </c>
@@ -22877,7 +22877,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>43647</v>
       </c>
@@ -22924,7 +22924,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>43647</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>43647</v>
       </c>
@@ -23018,7 +23018,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>43647</v>
       </c>
@@ -23065,7 +23065,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>43678</v>
       </c>
@@ -23112,7 +23112,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>43678</v>
       </c>
@@ -23159,7 +23159,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>43678</v>
       </c>
@@ -23206,7 +23206,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>43678</v>
       </c>
@@ -23253,7 +23253,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>43678</v>
       </c>
@@ -23300,7 +23300,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>43678</v>
       </c>
@@ -23347,7 +23347,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>43709</v>
       </c>
@@ -23394,7 +23394,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>43709</v>
       </c>
@@ -23441,7 +23441,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>43709</v>
       </c>
@@ -23488,7 +23488,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>43709</v>
       </c>
@@ -23535,7 +23535,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>43709</v>
       </c>
@@ -23582,7 +23582,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>43709</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>43739</v>
       </c>
@@ -23676,7 +23676,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>43739</v>
       </c>
@@ -23723,7 +23723,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>43739</v>
       </c>
@@ -23770,7 +23770,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>43739</v>
       </c>
@@ -23817,7 +23817,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>43739</v>
       </c>
@@ -23864,7 +23864,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>43739</v>
       </c>
@@ -23911,7 +23911,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>43770</v>
       </c>
@@ -23958,7 +23958,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>43770</v>
       </c>
@@ -24005,7 +24005,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>43770</v>
       </c>
@@ -24052,7 +24052,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>43770</v>
       </c>
@@ -24099,7 +24099,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>43770</v>
       </c>
@@ -24146,7 +24146,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>43770</v>
       </c>
@@ -24193,7 +24193,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>43800</v>
       </c>
@@ -24240,7 +24240,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>43800</v>
       </c>
@@ -24287,7 +24287,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>43800</v>
       </c>
@@ -24334,7 +24334,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>43800</v>
       </c>
@@ -24381,7 +24381,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>43800</v>
       </c>
@@ -24428,7 +24428,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>43800</v>
       </c>
@@ -24475,7 +24475,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>43831</v>
       </c>
@@ -24522,7 +24522,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>43831</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>43831</v>
       </c>
@@ -24616,7 +24616,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>43831</v>
       </c>
@@ -24663,7 +24663,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>43831</v>
       </c>
@@ -24710,7 +24710,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>43831</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>43862</v>
       </c>
@@ -24804,7 +24804,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>43862</v>
       </c>
@@ -24851,7 +24851,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>43862</v>
       </c>
@@ -24898,7 +24898,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>43862</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>43862</v>
       </c>
@@ -24992,7 +24992,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>43862</v>
       </c>
@@ -25039,7 +25039,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>43891</v>
       </c>
@@ -25086,7 +25086,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>43891</v>
       </c>
@@ -25133,7 +25133,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>43891</v>
       </c>
@@ -25180,7 +25180,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>43891</v>
       </c>
@@ -25227,7 +25227,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>43891</v>
       </c>
@@ -25274,7 +25274,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>43891</v>
       </c>
@@ -25321,7 +25321,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>43922</v>
       </c>
@@ -25368,7 +25368,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>43922</v>
       </c>
@@ -25415,7 +25415,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>43922</v>
       </c>
@@ -25462,7 +25462,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>43922</v>
       </c>
@@ -25509,7 +25509,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>43922</v>
       </c>
@@ -25556,7 +25556,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>43922</v>
       </c>
@@ -25603,7 +25603,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>43952</v>
       </c>
@@ -25650,7 +25650,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>43952</v>
       </c>
@@ -25697,7 +25697,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>43952</v>
       </c>
@@ -25744,7 +25744,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>43952</v>
       </c>
@@ -25791,7 +25791,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>43952</v>
       </c>
@@ -25838,7 +25838,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>43952</v>
       </c>
@@ -25885,7 +25885,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>43983</v>
       </c>
@@ -25932,7 +25932,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>43983</v>
       </c>
@@ -25979,7 +25979,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>43983</v>
       </c>
@@ -26026,7 +26026,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>43983</v>
       </c>
@@ -26073,7 +26073,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>43983</v>
       </c>
@@ -26120,7 +26120,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>43983</v>
       </c>
@@ -26167,7 +26167,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>44013</v>
       </c>
@@ -26214,7 +26214,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>44013</v>
       </c>
@@ -26261,7 +26261,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>44013</v>
       </c>
@@ -26308,7 +26308,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>44013</v>
       </c>
@@ -26355,7 +26355,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>44013</v>
       </c>
@@ -26402,7 +26402,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>44013</v>
       </c>
@@ -26449,7 +26449,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>44044</v>
       </c>
@@ -26496,7 +26496,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>44044</v>
       </c>
@@ -26543,7 +26543,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>44044</v>
       </c>
@@ -26590,7 +26590,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>44044</v>
       </c>
@@ -26637,7 +26637,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>44044</v>
       </c>
@@ -26684,7 +26684,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>44044</v>
       </c>
@@ -26731,7 +26731,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>44105</v>
       </c>
@@ -26778,7 +26778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>44105</v>
       </c>
@@ -26825,7 +26825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>44105</v>
       </c>
@@ -26872,7 +26872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>44105</v>
       </c>
@@ -26919,7 +26919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>44105</v>
       </c>
@@ -26966,7 +26966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>44105</v>
       </c>
@@ -27013,7 +27013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>44105</v>
       </c>
@@ -27060,7 +27060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>44136</v>
       </c>
@@ -27107,7 +27107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>44136</v>
       </c>
@@ -27154,7 +27154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>44136</v>
       </c>
@@ -27201,7 +27201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>44136</v>
       </c>
@@ -27248,7 +27248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>44136</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>44136</v>
       </c>
@@ -27342,7 +27342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>44136</v>
       </c>
@@ -27389,7 +27389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>44166</v>
       </c>
@@ -27436,7 +27436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>44166</v>
       </c>
@@ -27483,7 +27483,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>44166</v>
       </c>
@@ -27530,7 +27530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>44166</v>
       </c>
@@ -27577,7 +27577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>44166</v>
       </c>
@@ -27624,7 +27624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>44166</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>44166</v>
       </c>
@@ -27718,7 +27718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>44197</v>
       </c>
@@ -27765,7 +27765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>44197</v>
       </c>
@@ -27812,7 +27812,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>44197</v>
       </c>
@@ -27859,7 +27859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>44197</v>
       </c>
@@ -27906,7 +27906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>44197</v>
       </c>
@@ -27953,7 +27953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>44197</v>
       </c>
@@ -28000,7 +28000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>44197</v>
       </c>
@@ -28047,7 +28047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>44228</v>
       </c>
@@ -28094,7 +28094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>44228</v>
       </c>
@@ -28141,7 +28141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>44228</v>
       </c>
@@ -28188,7 +28188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>44228</v>
       </c>
@@ -28235,7 +28235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>44228</v>
       </c>
@@ -28282,7 +28282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>44228</v>
       </c>
@@ -28329,7 +28329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>44228</v>
       </c>
@@ -28376,7 +28376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>44256</v>
       </c>
@@ -28423,7 +28423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>44256</v>
       </c>
@@ -28470,7 +28470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>44256</v>
       </c>
@@ -28517,7 +28517,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>44256</v>
       </c>
@@ -28564,7 +28564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>44256</v>
       </c>
@@ -28611,7 +28611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>44256</v>
       </c>
@@ -28658,7 +28658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>44256</v>
       </c>
@@ -28705,7 +28705,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>44287</v>
       </c>
@@ -28752,7 +28752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>44287</v>
       </c>
@@ -28799,7 +28799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>44287</v>
       </c>
@@ -28846,7 +28846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>44287</v>
       </c>
@@ -28893,7 +28893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>44287</v>
       </c>
@@ -28940,7 +28940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>44287</v>
       </c>
@@ -28987,7 +28987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>44287</v>
       </c>
@@ -29034,7 +29034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>44317</v>
       </c>
@@ -29081,7 +29081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>44317</v>
       </c>
@@ -29128,7 +29128,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>44317</v>
       </c>
@@ -29175,7 +29175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>44317</v>
       </c>
@@ -29222,7 +29222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
         <v>44317</v>
       </c>
@@ -29269,7 +29269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A624" s="2">
         <v>44317</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>44317</v>
       </c>
@@ -29363,7 +29363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
         <v>44348</v>
       </c>
@@ -29410,7 +29410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
         <v>44348</v>
       </c>
@@ -29457,7 +29457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A628" s="2">
         <v>44348</v>
       </c>
@@ -29504,7 +29504,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
         <v>44348</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
         <v>44348</v>
       </c>
@@ -29598,7 +29598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
         <v>44348</v>
       </c>
@@ -29645,7 +29645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
         <v>44348</v>
       </c>
@@ -29692,7 +29692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A633" s="2">
         <v>44378</v>
       </c>
@@ -29739,7 +29739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A634" s="2">
         <v>44378</v>
       </c>
@@ -29786,7 +29786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
         <v>44378</v>
       </c>
@@ -29833,7 +29833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
         <v>44378</v>
       </c>
@@ -29880,7 +29880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
         <v>44378</v>
       </c>
@@ -29927,7 +29927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
         <v>44378</v>
       </c>
@@ -29974,7 +29974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
         <v>44378</v>
       </c>
@@ -30021,7 +30021,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A640" s="2">
         <v>44409</v>
       </c>
@@ -30068,7 +30068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
         <v>44409</v>
       </c>
@@ -30115,7 +30115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A642" s="2">
         <v>44409</v>
       </c>
@@ -30162,7 +30162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A643" s="2">
         <v>44409</v>
       </c>
@@ -30209,7 +30209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A644" s="2">
         <v>44409</v>
       </c>
@@ -30256,7 +30256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A645" s="2">
         <v>44409</v>
       </c>
@@ -30303,7 +30303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A646" s="2">
         <v>44409</v>
       </c>
@@ -30350,7 +30350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A647" s="2">
         <v>44440</v>
       </c>
@@ -30397,7 +30397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A648" s="2">
         <v>44440</v>
       </c>
@@ -30444,7 +30444,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A649" s="2">
         <v>44440</v>
       </c>
@@ -30491,7 +30491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A650" s="2">
         <v>44440</v>
       </c>
@@ -30538,7 +30538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A651" s="2">
         <v>44440</v>
       </c>
@@ -30585,7 +30585,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A652" s="2">
         <v>44440</v>
       </c>
@@ -30632,7 +30632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A653" s="2">
         <v>44440</v>
       </c>
@@ -30679,7 +30679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A654" s="2">
         <v>44470</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A655" s="2">
         <v>44470</v>
       </c>
@@ -30773,7 +30773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A656" s="2">
         <v>44470</v>
       </c>
@@ -30820,7 +30820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A657" s="2">
         <v>44470</v>
       </c>
@@ -30867,7 +30867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A658" s="2">
         <v>44470</v>
       </c>
@@ -30914,7 +30914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A659" s="2">
         <v>44470</v>
       </c>
@@ -30961,7 +30961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A660" s="2">
         <v>44470</v>
       </c>
@@ -31008,7 +31008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A661" s="2">
         <v>44501</v>
       </c>
@@ -31055,7 +31055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A662" s="2">
         <v>44501</v>
       </c>
@@ -31102,7 +31102,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A663" s="2">
         <v>44501</v>
       </c>
@@ -31149,7 +31149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A664" s="2">
         <v>44501</v>
       </c>
@@ -31196,7 +31196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A665" s="2">
         <v>44501</v>
       </c>
@@ -31243,7 +31243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A666" s="2">
         <v>44501</v>
       </c>
@@ -31290,7 +31290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A667" s="2">
         <v>44501</v>
       </c>
@@ -31337,7 +31337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A668" s="2">
         <v>44531</v>
       </c>
@@ -31384,7 +31384,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A669" s="2">
         <v>44531</v>
       </c>
@@ -31431,7 +31431,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A670" s="2">
         <v>44531</v>
       </c>
@@ -31478,7 +31478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A671" s="2">
         <v>44531</v>
       </c>
@@ -31525,7 +31525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A672" s="2">
         <v>44531</v>
       </c>
@@ -31572,7 +31572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A673" s="2">
         <v>44531</v>
       </c>
@@ -31619,7 +31619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A674" s="2">
         <v>44531</v>
       </c>
@@ -31666,7 +31666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A675" s="2">
         <v>44562</v>
       </c>
@@ -31713,7 +31713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A676" s="2">
         <v>44562</v>
       </c>
@@ -31760,7 +31760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A677" s="2">
         <v>44562</v>
       </c>
@@ -31807,7 +31807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A678" s="2">
         <v>44562</v>
       </c>
@@ -31854,7 +31854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A679" s="2">
         <v>44562</v>
       </c>
@@ -31901,7 +31901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A680" s="2">
         <v>44562</v>
       </c>
@@ -31948,7 +31948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A681" s="2">
         <v>44562</v>
       </c>
@@ -31995,7 +31995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A682" s="2">
         <v>44593</v>
       </c>
@@ -32042,7 +32042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A683" s="2">
         <v>44593</v>
       </c>
@@ -32089,7 +32089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A684" s="2">
         <v>44593</v>
       </c>
@@ -32136,7 +32136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A685" s="2">
         <v>44593</v>
       </c>
@@ -32183,7 +32183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A686" s="2">
         <v>44593</v>
       </c>
@@ -32230,7 +32230,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A687" s="2">
         <v>44593</v>
       </c>
@@ -32277,7 +32277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A688" s="2">
         <v>44593</v>
       </c>
@@ -32324,7 +32324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A689" s="2">
         <v>44621</v>
       </c>
@@ -32371,7 +32371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A690" s="2">
         <v>44621</v>
       </c>
@@ -32418,7 +32418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A691" s="2">
         <v>44621</v>
       </c>
@@ -32465,7 +32465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A692" s="2">
         <v>44621</v>
       </c>
@@ -32512,7 +32512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A693" s="2">
         <v>44621</v>
       </c>
@@ -32559,7 +32559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A694" s="2">
         <v>44621</v>
       </c>
@@ -32606,7 +32606,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A695" s="2">
         <v>44621</v>
       </c>
@@ -32653,7 +32653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A696" s="2">
         <v>44652</v>
       </c>
@@ -32700,7 +32700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A697" s="2">
         <v>44652</v>
       </c>
@@ -32747,7 +32747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A698" s="2">
         <v>44652</v>
       </c>
@@ -32794,7 +32794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A699" s="2">
         <v>44652</v>
       </c>
@@ -32841,7 +32841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A700" s="2">
         <v>44652</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A701" s="2">
         <v>44652</v>
       </c>
@@ -32935,7 +32935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A702" s="2">
         <v>44652</v>
       </c>
@@ -32982,7 +32982,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A703" s="2">
         <v>44682</v>
       </c>
@@ -33029,7 +33029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A704" s="2">
         <v>44682</v>
       </c>
@@ -33076,7 +33076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A705" s="2">
         <v>44682</v>
       </c>
@@ -33123,7 +33123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A706" s="2">
         <v>44682</v>
       </c>
@@ -33170,7 +33170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A707" s="2">
         <v>44682</v>
       </c>
@@ -33217,7 +33217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A708" s="2">
         <v>44682</v>
       </c>
@@ -33264,7 +33264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A709" s="2">
         <v>44682</v>
       </c>
@@ -33311,7 +33311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A710" s="2">
         <v>44713</v>
       </c>
@@ -33358,7 +33358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A711" s="2">
         <v>44713</v>
       </c>
@@ -33405,7 +33405,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A712" s="2">
         <v>44713</v>
       </c>
@@ -33452,7 +33452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A713" s="2">
         <v>44713</v>
       </c>
@@ -33499,7 +33499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A714" s="2">
         <v>44713</v>
       </c>
@@ -33546,7 +33546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A715" s="2">
         <v>44713</v>
       </c>
@@ -33593,7 +33593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A716" s="2">
         <v>44713</v>
       </c>
@@ -33640,7 +33640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A717" s="2">
         <v>44743</v>
       </c>
@@ -33687,7 +33687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A718" s="2">
         <v>44743</v>
       </c>
@@ -33734,7 +33734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A719" s="2">
         <v>44743</v>
       </c>
@@ -33781,7 +33781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A720" s="2">
         <v>44743</v>
       </c>
@@ -33828,7 +33828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A721" s="2">
         <v>44743</v>
       </c>
@@ -33875,7 +33875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A722" s="2">
         <v>44743</v>
       </c>
@@ -33922,7 +33922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A723" s="2">
         <v>44743</v>
       </c>
@@ -33969,7 +33969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A724" s="2">
         <v>44774</v>
       </c>
@@ -34016,7 +34016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A725" s="2">
         <v>44774</v>
       </c>
@@ -34063,7 +34063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="726" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A726" s="2">
         <v>44774</v>
       </c>
@@ -34110,7 +34110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="727" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A727" s="2">
         <v>44774</v>
       </c>
@@ -34157,7 +34157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A728" s="2">
         <v>44774</v>
       </c>
@@ -34204,7 +34204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A729" s="2">
         <v>44774</v>
       </c>
@@ -34251,7 +34251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="730" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A730" s="2">
         <v>44774</v>
       </c>
@@ -34298,7 +34298,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="731" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A731" s="2">
         <v>44805</v>
       </c>
@@ -34345,7 +34345,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="732" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A732" s="2">
         <v>44805</v>
       </c>
@@ -34392,7 +34392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A733" s="2">
         <v>44805</v>
       </c>
@@ -34439,7 +34439,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A734" s="2">
         <v>44805</v>
       </c>
@@ -34486,7 +34486,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A735" s="2">
         <v>44805</v>
       </c>
@@ -34533,7 +34533,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="736" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A736" s="2">
         <v>44805</v>
       </c>
@@ -34580,7 +34580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="737" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A737" s="2">
         <v>44805</v>
       </c>
@@ -34627,7 +34627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="738" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A738" s="2">
         <v>44835</v>
       </c>
@@ -34674,7 +34674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="739" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A739" s="2">
         <v>44835</v>
       </c>
@@ -34721,7 +34721,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="740" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A740" s="2">
         <v>44835</v>
       </c>
@@ -34768,7 +34768,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="741" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A741" s="2">
         <v>44835</v>
       </c>
@@ -34815,7 +34815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="742" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A742" s="2">
         <v>44835</v>
       </c>
@@ -34862,7 +34862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="743" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A743" s="2">
         <v>44835</v>
       </c>
@@ -34909,7 +34909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A744" s="2">
         <v>44835</v>
       </c>
@@ -34956,7 +34956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="745" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A745" s="2">
         <v>44866</v>
       </c>
@@ -35003,7 +35003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="746" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A746" s="2">
         <v>44866</v>
       </c>
@@ -35050,7 +35050,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="747" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A747" s="2">
         <v>44866</v>
       </c>
@@ -35097,7 +35097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="748" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A748" s="2">
         <v>44866</v>
       </c>
@@ -35144,7 +35144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="749" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A749" s="2">
         <v>44866</v>
       </c>
@@ -35191,7 +35191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="750" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A750" s="2">
         <v>44866</v>
       </c>
@@ -35238,7 +35238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="751" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A751" s="2">
         <v>44866</v>
       </c>
@@ -35285,7 +35285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="752" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A752" s="2">
         <v>44896</v>
       </c>
@@ -35332,7 +35332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="753" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A753" s="2">
         <v>44896</v>
       </c>
@@ -35379,7 +35379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="754" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A754" s="2">
         <v>44896</v>
       </c>
@@ -35426,7 +35426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="755" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A755" s="2">
         <v>44896</v>
       </c>
@@ -35473,7 +35473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="756" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A756" s="2">
         <v>44896</v>
       </c>
@@ -35520,7 +35520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="757" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A757" s="2">
         <v>44896</v>
       </c>
@@ -35567,7 +35567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="758" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A758" s="2">
         <v>44896</v>
       </c>
@@ -35614,7 +35614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="759" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A759" s="2">
         <v>44927</v>
       </c>
@@ -35661,7 +35661,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="760" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A760" s="2">
         <v>44927</v>
       </c>
@@ -35708,7 +35708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="761" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A761" s="2">
         <v>44927</v>
       </c>
@@ -35755,7 +35755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="762" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A762" s="2">
         <v>44927</v>
       </c>
@@ -35802,7 +35802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="763" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A763" s="2">
         <v>44927</v>
       </c>
@@ -35849,7 +35849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="764" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A764" s="2">
         <v>44927</v>
       </c>
@@ -35896,7 +35896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="765" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A765" s="2">
         <v>44927</v>
       </c>
@@ -35943,7 +35943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="766" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A766" s="2">
         <v>44958</v>
       </c>
@@ -35990,7 +35990,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="767" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A767" s="2">
         <v>44958</v>
       </c>
@@ -36037,7 +36037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="768" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A768" s="2">
         <v>44958</v>
       </c>
@@ -36084,7 +36084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="769" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A769" s="2">
         <v>44958</v>
       </c>
@@ -36131,7 +36131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="770" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A770" s="2">
         <v>44958</v>
       </c>
@@ -36178,7 +36178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="771" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A771" s="2">
         <v>44958</v>
       </c>
@@ -36225,7 +36225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="772" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A772" s="2">
         <v>44958</v>
       </c>
@@ -36272,7 +36272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="773" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A773" s="2">
         <v>44986</v>
       </c>
@@ -36319,7 +36319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="774" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A774" s="2">
         <v>44986</v>
       </c>
@@ -36366,7 +36366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="775" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A775" s="2">
         <v>44986</v>
       </c>
@@ -36413,7 +36413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="776" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A776" s="2">
         <v>44986</v>
       </c>
@@ -36460,7 +36460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="777" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A777" s="2">
         <v>44986</v>
       </c>
@@ -36507,7 +36507,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="778" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A778" s="2">
         <v>44986</v>
       </c>
@@ -36554,7 +36554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="779" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A779" s="2">
         <v>44986</v>
       </c>
@@ -36601,7 +36601,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="780" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A780" s="2">
         <v>45017</v>
       </c>
@@ -36648,7 +36648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="781" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A781" s="2">
         <v>45017</v>
       </c>
@@ -36695,7 +36695,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="782" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A782" s="2">
         <v>45017</v>
       </c>
@@ -36742,7 +36742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="783" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A783" s="2">
         <v>45017</v>
       </c>
@@ -36789,7 +36789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="784" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A784" s="2">
         <v>45017</v>
       </c>
@@ -36836,7 +36836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="785" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A785" s="2">
         <v>45017</v>
       </c>
@@ -36883,7 +36883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="786" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A786" s="2">
         <v>45017</v>
       </c>
@@ -36930,7 +36930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="787" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A787" s="2">
         <v>45047</v>
       </c>
@@ -36977,7 +36977,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="788" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A788" s="2">
         <v>45047</v>
       </c>
@@ -37024,7 +37024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="789" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A789" s="2">
         <v>45047</v>
       </c>
@@ -37071,7 +37071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="790" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A790" s="2">
         <v>45047</v>
       </c>
@@ -37118,7 +37118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="791" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A791" s="2">
         <v>45047</v>
       </c>
@@ -37165,7 +37165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="792" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A792" s="2">
         <v>45047</v>
       </c>
@@ -37212,7 +37212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="793" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A793" s="2">
         <v>45047</v>
       </c>
@@ -37259,7 +37259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="794" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A794" s="2">
         <v>45078</v>
       </c>
@@ -37306,7 +37306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="795" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A795" s="2">
         <v>45078</v>
       </c>
@@ -37353,7 +37353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="796" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A796" s="2">
         <v>45078</v>
       </c>
@@ -37400,7 +37400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="797" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A797" s="2">
         <v>45078</v>
       </c>
@@ -37447,7 +37447,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="798" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A798" s="2">
         <v>45078</v>
       </c>
@@ -37494,7 +37494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="799" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A799" s="2">
         <v>45078</v>
       </c>
@@ -37541,7 +37541,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="800" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A800" s="2">
         <v>45078</v>
       </c>
@@ -37588,7 +37588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="801" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A801" s="2">
         <v>45108</v>
       </c>
@@ -37635,7 +37635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="802" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A802" s="2">
         <v>45108</v>
       </c>
@@ -37682,7 +37682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="803" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A803" s="2">
         <v>45108</v>
       </c>
@@ -37729,7 +37729,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="804" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A804" s="2">
         <v>45108</v>
       </c>
@@ -37776,7 +37776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="805" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A805" s="2">
         <v>45108</v>
       </c>
@@ -37823,7 +37823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="806" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A806" s="2">
         <v>45108</v>
       </c>
@@ -37870,7 +37870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="807" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A807" s="2">
         <v>45108</v>
       </c>
@@ -37917,7 +37917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="808" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A808" s="2">
         <v>45139</v>
       </c>
@@ -37964,7 +37964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="809" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A809" s="2">
         <v>45139</v>
       </c>
@@ -38011,7 +38011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="810" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A810" s="2">
         <v>45139</v>
       </c>
@@ -38058,7 +38058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="811" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A811" s="2">
         <v>45139</v>
       </c>
@@ -38105,7 +38105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="812" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A812" s="2">
         <v>45139</v>
       </c>
@@ -38152,7 +38152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="813" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A813" s="2">
         <v>45139</v>
       </c>
@@ -38199,7 +38199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="814" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A814" s="2">
         <v>45139</v>
       </c>
@@ -38246,7 +38246,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="815" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A815" s="2">
         <v>45170</v>
       </c>
@@ -38293,7 +38293,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="816" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A816" s="2">
         <v>45170</v>
       </c>
@@ -38340,7 +38340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="817" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A817" s="2">
         <v>45170</v>
       </c>
@@ -38387,7 +38387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="818" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A818" s="2">
         <v>45170</v>
       </c>
@@ -38434,7 +38434,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="819" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A819" s="2">
         <v>45170</v>
       </c>
@@ -38481,7 +38481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="820" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A820" s="2">
         <v>45170</v>
       </c>
@@ -38528,7 +38528,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="821" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A821" s="2">
         <v>45170</v>
       </c>
@@ -38575,7 +38575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="822" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A822" s="2">
         <v>45200</v>
       </c>
@@ -38622,7 +38622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="823" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A823" s="2">
         <v>45200</v>
       </c>
@@ -38669,7 +38669,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="824" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A824" s="2">
         <v>45200</v>
       </c>
@@ -38716,7 +38716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="825" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A825" s="2">
         <v>45200</v>
       </c>
@@ -38763,7 +38763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="826" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A826" s="2">
         <v>45200</v>
       </c>
@@ -38810,7 +38810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="827" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A827" s="2">
         <v>45200</v>
       </c>
@@ -38857,7 +38857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="828" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A828" s="2">
         <v>45200</v>
       </c>
@@ -38904,7 +38904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="829" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A829" s="2">
         <v>45231</v>
       </c>
@@ -38951,7 +38951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="830" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A830" s="2">
         <v>45231</v>
       </c>
@@ -38998,7 +38998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="831" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A831" s="2">
         <v>45231</v>
       </c>
@@ -39045,7 +39045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="832" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A832" s="2">
         <v>45231</v>
       </c>
@@ -39092,7 +39092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="833" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A833" s="2">
         <v>45231</v>
       </c>
@@ -39139,7 +39139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="834" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A834" s="2">
         <v>45231</v>
       </c>
@@ -39186,7 +39186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="835" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A835" s="2">
         <v>45231</v>
       </c>
@@ -39233,7 +39233,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="836" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A836" s="2">
         <v>45261</v>
       </c>
@@ -39280,7 +39280,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="837" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A837" s="2">
         <v>45261</v>
       </c>
@@ -39327,7 +39327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="838" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A838" s="2">
         <v>45261</v>
       </c>
@@ -39374,7 +39374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="839" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A839" s="2">
         <v>45261</v>
       </c>
@@ -39421,7 +39421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="840" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A840" s="2">
         <v>45261</v>
       </c>
@@ -39468,7 +39468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="841" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A841" s="2">
         <v>45261</v>
       </c>
@@ -39515,7 +39515,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="842" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A842" s="2">
         <v>45261</v>
       </c>
@@ -39562,10 +39562,997 @@
         <v>33</v>
       </c>
     </row>
+    <row r="843" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A843" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C843" s="3">
+        <v>19235</v>
+      </c>
+      <c r="D843" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E843" s="9">
+        <v>3.42</v>
+      </c>
+      <c r="F843" s="6">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G843" s="9">
+        <v>2.63</v>
+      </c>
+      <c r="H843" s="9">
+        <v>6.6</v>
+      </c>
+      <c r="I843" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J843" s="6">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="K843" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L843" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M843" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N843" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O843" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="844" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A844" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C844" s="3">
+        <v>17895</v>
+      </c>
+      <c r="D844" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E844" s="9">
+        <v>5.76</v>
+      </c>
+      <c r="F844" s="6">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G844" s="9">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="H844" s="9">
+        <v>8.69</v>
+      </c>
+      <c r="I844" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J844" s="6">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K844" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L844" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M844" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N844" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O844" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="845" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A845" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C845" s="3">
+        <v>22735</v>
+      </c>
+      <c r="D845" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E845" s="9">
+        <v>5.57</v>
+      </c>
+      <c r="F845" s="6">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G845" s="9">
+        <v>4.55</v>
+      </c>
+      <c r="H845" s="9">
+        <v>7.99</v>
+      </c>
+      <c r="I845" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J845" s="6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="K845" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L845" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M845" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N845" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O845" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="846" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A846" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C846" s="3">
+        <v>22704</v>
+      </c>
+      <c r="D846" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E846" s="9">
+        <v>100.88</v>
+      </c>
+      <c r="F846" s="6">
+        <v>12.942</v>
+      </c>
+      <c r="G846" s="9">
+        <v>67</v>
+      </c>
+      <c r="H846" s="9">
+        <v>154</v>
+      </c>
+      <c r="I846" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J846" s="6">
+        <v>0.128</v>
+      </c>
+      <c r="K846" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L846" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M846" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N846" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O846" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="847" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A847" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C847" s="3">
+        <v>1784</v>
+      </c>
+      <c r="D847" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E847" s="9">
+        <v>4.58</v>
+      </c>
+      <c r="F847" s="6">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="G847" s="9">
+        <v>3.54</v>
+      </c>
+      <c r="H847" s="9">
+        <v>6.69</v>
+      </c>
+      <c r="I847" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J847" s="6">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K847" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L847" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M847" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N847" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O847" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="848" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A848" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C848" s="3">
+        <v>10430</v>
+      </c>
+      <c r="D848" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E848" s="9">
+        <v>5.86</v>
+      </c>
+      <c r="F848" s="6">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G848" s="9">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="H848" s="9">
+        <v>8.19</v>
+      </c>
+      <c r="I848" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J848" s="6">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K848" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L848" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M848" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N848" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O848" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="849" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A849" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B849" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C849" s="3">
+        <v>16573</v>
+      </c>
+      <c r="D849" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E849" s="9">
+        <v>5.95</v>
+      </c>
+      <c r="F849" s="6">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G849" s="9">
+        <v>4.99</v>
+      </c>
+      <c r="H849" s="9">
+        <v>8.89</v>
+      </c>
+      <c r="I849" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J849" s="6">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K849" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L849" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M849" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N849" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O849" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="850" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A850" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B850" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C850" s="3">
+        <v>16477</v>
+      </c>
+      <c r="D850" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E850" s="9">
+        <v>3.57</v>
+      </c>
+      <c r="F850" s="6">
+        <v>0.499</v>
+      </c>
+      <c r="G850" s="9">
+        <v>2.73</v>
+      </c>
+      <c r="H850" s="9">
+        <v>6.6</v>
+      </c>
+      <c r="I850" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J850" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K850" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L850" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M850" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N850" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O850" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="851" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A851" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B851" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C851" s="3">
+        <v>15160</v>
+      </c>
+      <c r="D851" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E851" s="9">
+        <v>5.95</v>
+      </c>
+      <c r="F851" s="6">
+        <v>0.378</v>
+      </c>
+      <c r="G851" s="9">
+        <v>4.79</v>
+      </c>
+      <c r="H851" s="9">
+        <v>8.89</v>
+      </c>
+      <c r="I851" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J851" s="6">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K851" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L851" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M851" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N851" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O851" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="852" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A852" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B852" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C852" s="3">
+        <v>19457</v>
+      </c>
+      <c r="D852" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E852" s="9">
+        <v>5.75</v>
+      </c>
+      <c r="F852" s="6">
+        <v>0.378</v>
+      </c>
+      <c r="G852" s="9">
+        <v>4.59</v>
+      </c>
+      <c r="H852" s="9">
+        <v>7.97</v>
+      </c>
+      <c r="I852" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J852" s="6">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K852" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L852" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M852" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N852" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O852" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="853" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A853" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C853" s="3">
+        <v>19774</v>
+      </c>
+      <c r="D853" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E853" s="9">
+        <v>102.09</v>
+      </c>
+      <c r="F853" s="6">
+        <v>12.462999999999999</v>
+      </c>
+      <c r="G853" s="9">
+        <v>67</v>
+      </c>
+      <c r="H853" s="9">
+        <v>154</v>
+      </c>
+      <c r="I853" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J853" s="6">
+        <v>0.122</v>
+      </c>
+      <c r="K853" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L853" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M853" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N853" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O853" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="854" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A854" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B854" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C854" s="3">
+        <v>1463</v>
+      </c>
+      <c r="D854" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E854" s="9">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F854" s="6">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G854" s="9">
+        <v>3.54</v>
+      </c>
+      <c r="H854" s="9">
+        <v>6.69</v>
+      </c>
+      <c r="I854" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J854" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K854" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L854" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M854" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N854" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O854" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="855" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A855" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B855" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C855" s="3">
+        <v>8970</v>
+      </c>
+      <c r="D855" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E855" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="F855" s="6">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G855" s="9">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="H855" s="9">
+        <v>7.95</v>
+      </c>
+      <c r="I855" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J855" s="6">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K855" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L855" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M855" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N855" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O855" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="856" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A856" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B856" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C856" s="3">
+        <v>14208</v>
+      </c>
+      <c r="D856" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E856" s="9">
+        <v>5.97</v>
+      </c>
+      <c r="F856" s="6">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G856" s="9">
+        <v>4.99</v>
+      </c>
+      <c r="H856" s="9">
+        <v>8.89</v>
+      </c>
+      <c r="I856" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J856" s="6">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K856" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L856" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M856" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N856" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O856" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="857" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A857" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B857" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C857" s="3">
+        <v>16107</v>
+      </c>
+      <c r="D857" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E857" s="9">
+        <v>3.58</v>
+      </c>
+      <c r="F857" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="G857" s="9">
+        <v>2.69</v>
+      </c>
+      <c r="H857" s="9">
+        <v>5.99</v>
+      </c>
+      <c r="I857" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J857" s="6">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="K857" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L857" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M857" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N857" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O857" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="858" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A858" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B858" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C858" s="3">
+        <v>14844</v>
+      </c>
+      <c r="D858" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E858" s="9">
+        <v>5.93</v>
+      </c>
+      <c r="F858" s="6">
+        <v>0.378</v>
+      </c>
+      <c r="G858" s="9">
+        <v>4.79</v>
+      </c>
+      <c r="H858" s="9">
+        <v>7.99</v>
+      </c>
+      <c r="I858" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J858" s="6">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K858" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L858" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M858" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N858" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O858" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="859" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A859" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B859" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C859" s="3">
+        <v>18955</v>
+      </c>
+      <c r="D859" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E859" s="9">
+        <v>5.74</v>
+      </c>
+      <c r="F859" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="G859" s="9">
+        <v>4.59</v>
+      </c>
+      <c r="H859" s="9">
+        <v>7.97</v>
+      </c>
+      <c r="I859" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J859" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K859" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L859" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M859" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N859" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O859" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="860" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A860" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B860" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C860" s="3">
+        <v>19099</v>
+      </c>
+      <c r="D860" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E860" s="9">
+        <v>102.18</v>
+      </c>
+      <c r="F860" s="6">
+        <v>12.702</v>
+      </c>
+      <c r="G860" s="9">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="H860" s="9">
+        <v>154</v>
+      </c>
+      <c r="I860" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J860" s="6">
+        <v>0.124</v>
+      </c>
+      <c r="K860" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L860" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M860" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N860" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O860" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="861" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A861" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B861" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C861" s="3">
+        <v>1518</v>
+      </c>
+      <c r="D861" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E861" s="9">
+        <v>4.54</v>
+      </c>
+      <c r="F861" s="6">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G861" s="9">
+        <v>3.54</v>
+      </c>
+      <c r="H861" s="9">
+        <v>6.29</v>
+      </c>
+      <c r="I861" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J861" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K861" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L861" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M861" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N861" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O861" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="862" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A862" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B862" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C862" s="3">
+        <v>8743</v>
+      </c>
+      <c r="D862" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E862" s="9">
+        <v>5.86</v>
+      </c>
+      <c r="F862" s="6">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G862" s="9">
+        <v>5.12</v>
+      </c>
+      <c r="H862" s="9">
+        <v>7.95</v>
+      </c>
+      <c r="I862" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J862" s="6">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K862" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L862" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M862" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N862" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O862" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="863" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A863" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B863" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C863" s="3">
+        <v>13954</v>
+      </c>
+      <c r="D863" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E863" s="9">
+        <v>5.93</v>
+      </c>
+      <c r="F863" s="6">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G863" s="9">
+        <v>4.99</v>
+      </c>
+      <c r="H863" s="9">
+        <v>8.49</v>
+      </c>
+      <c r="I863" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J863" s="6">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K863" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L863" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M863" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N863" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O863" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:O835">
-    <sortCondition ref="A18:A835"/>
-    <sortCondition ref="B18:B835"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:O863">
+    <sortCondition ref="A18:A863"/>
+    <sortCondition ref="B18:B863"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
